--- a/images/schedule.xlsx
+++ b/images/schedule.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" mc:Ignorable="x15 xr xr6 xr10">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24430"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24527"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\cpernet\Desktop\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\brainhack\images\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:40001_{D3500001-7D13-41C6-B93F-C56F45DE3741}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7A29BA18-56DC-44ED-8D57-517CB0DC4C7A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10560"/>
+    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="18240" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="per day" sheetId="1" r:id="rId1"/>
@@ -23,9 +23,7 @@
     <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
       <xcalcf:calcFeatures>
         <xcalcf:feature name="microsoft.com:RD"/>
-        <xcalcf:feature name="microsoft.com:Single"/>
         <xcalcf:feature name="microsoft.com:FV"/>
-        <xcalcf:feature name="microsoft.com:CNMTM"/>
         <xcalcf:feature name="microsoft.com:LET_WF"/>
       </xcalcf:calcFeatures>
     </ext>
@@ -34,7 +32,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="22" uniqueCount="16">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="22" uniqueCount="17">
   <si>
     <t>BrainHack Nordic</t>
   </si>
@@ -64,12 +62,6 @@
     <t>BIDS now and then (Dr Cyril Pernet)</t>
   </si>
   <si>
-    <t>Any BIDS related projects/tools</t>
-  </si>
-  <si>
-    <t>Datathon</t>
-  </si>
-  <si>
     <t>Unconference / Projects Presentation</t>
   </si>
   <si>
@@ -83,12 +75,24 @@
   </si>
   <si>
     <t>Unconference/Projects</t>
+  </si>
+  <si>
+    <t>BIDS related projects/tools</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Datathon (BIDS data curation)
+- bring your data ! - </t>
+  </si>
+  <si>
+    <t>Unconference/Projects
+- PET connectivity
+- BIDS coin</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -280,21 +284,9 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="35">
+  <cellXfs count="37">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -305,62 +297,80 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -675,429 +685,429 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
   <dimension ref="A2:I19"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B8" sqref="B8"/>
+      <selection activeCell="C27" sqref="C27"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="30.7265625" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultColWidth="30.7109375" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="4.6328125" style="2" customWidth="1"/>
-    <col min="2" max="2" width="31.54296875" style="2" customWidth="1"/>
-    <col min="3" max="3" width="30.7265625" style="2"/>
-    <col min="4" max="4" width="4.453125" style="2" customWidth="1"/>
-    <col min="5" max="5" width="3.54296875" style="2" customWidth="1"/>
-    <col min="6" max="6" width="4.453125" style="2" customWidth="1"/>
-    <col min="7" max="7" width="39.453125" style="2" customWidth="1"/>
-    <col min="8" max="8" width="30.7265625" style="2"/>
-    <col min="9" max="9" width="3.1796875" style="2" customWidth="1"/>
-    <col min="10" max="16384" width="30.7265625" style="2"/>
+    <col min="1" max="1" width="4.5703125" style="1" customWidth="1"/>
+    <col min="2" max="2" width="31.5703125" style="1" customWidth="1"/>
+    <col min="3" max="3" width="30.7109375" style="1"/>
+    <col min="4" max="4" width="4.42578125" style="1" customWidth="1"/>
+    <col min="5" max="5" width="3.5703125" style="1" customWidth="1"/>
+    <col min="6" max="6" width="4.42578125" style="1" customWidth="1"/>
+    <col min="7" max="7" width="39.42578125" style="1" customWidth="1"/>
+    <col min="8" max="8" width="30.7109375" style="1"/>
+    <col min="9" max="9" width="3.140625" style="1" customWidth="1"/>
+    <col min="10" max="16384" width="30.7109375" style="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="1:9" x14ac:dyDescent="0.35">
-      <c r="A2" s="3" t="s">
+    <row r="2" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A2" s="23" t="s">
         <v>4</v>
       </c>
-      <c r="B2" s="4"/>
-      <c r="C2" s="4"/>
-      <c r="D2" s="5"/>
-      <c r="F2" s="3" t="s">
+      <c r="B2" s="24"/>
+      <c r="C2" s="24"/>
+      <c r="D2" s="25"/>
+      <c r="F2" s="23" t="s">
         <v>5</v>
       </c>
-      <c r="G2" s="4"/>
-      <c r="H2" s="4"/>
-      <c r="I2" s="5"/>
-    </row>
-    <row r="3" spans="1:9" x14ac:dyDescent="0.35">
-      <c r="A3" s="29" t="s">
+      <c r="G2" s="24"/>
+      <c r="H2" s="24"/>
+      <c r="I2" s="25"/>
+    </row>
+    <row r="3" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A3" s="16" t="s">
         <v>2</v>
       </c>
-      <c r="B3" s="27" t="s">
+      <c r="B3" s="14" t="s">
         <v>0</v>
       </c>
-      <c r="C3" s="28" t="s">
+      <c r="C3" s="15" t="s">
         <v>1</v>
       </c>
-      <c r="D3" s="28" t="s">
+      <c r="D3" s="15" t="s">
         <v>3</v>
       </c>
-      <c r="F3" s="29" t="s">
+      <c r="F3" s="16" t="s">
         <v>2</v>
       </c>
-      <c r="G3" s="26" t="s">
+      <c r="G3" s="13" t="s">
         <v>0</v>
       </c>
-      <c r="H3" s="28" t="s">
+      <c r="H3" s="15" t="s">
         <v>1</v>
       </c>
-      <c r="I3" s="28" t="s">
+      <c r="I3" s="15" t="s">
         <v>3</v>
       </c>
     </row>
-    <row r="4" spans="1:9" x14ac:dyDescent="0.35">
-      <c r="A4" s="16">
+    <row r="4" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A4" s="8">
         <v>9</v>
       </c>
-      <c r="B4" s="30" t="s">
+      <c r="B4" s="17" t="s">
         <v>8</v>
       </c>
-      <c r="C4" s="10"/>
-      <c r="D4" s="16">
-        <f>A4-6</f>
+      <c r="C4" s="6"/>
+      <c r="D4" s="8">
+        <f t="shared" ref="D4:D10" si="0">A4-6</f>
         <v>3</v>
       </c>
-      <c r="F4" s="16">
+      <c r="F4" s="8">
         <v>9</v>
       </c>
-      <c r="G4" s="30" t="s">
-        <v>14</v>
-      </c>
-      <c r="H4" s="10"/>
-      <c r="I4" s="17">
+      <c r="G4" s="17" t="s">
+        <v>12</v>
+      </c>
+      <c r="H4" s="6"/>
+      <c r="I4" s="9">
         <f>F4-6</f>
         <v>3</v>
       </c>
     </row>
-    <row r="5" spans="1:9" x14ac:dyDescent="0.35">
-      <c r="A5" s="17">
+    <row r="5" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A5" s="9">
         <f>A4+1</f>
         <v>10</v>
       </c>
-      <c r="B5" s="31" t="s">
-        <v>9</v>
-      </c>
-      <c r="C5" s="10"/>
-      <c r="D5" s="17">
-        <f>A5-6</f>
+      <c r="B5" s="18" t="s">
+        <v>14</v>
+      </c>
+      <c r="C5" s="6"/>
+      <c r="D5" s="9">
+        <f t="shared" si="0"/>
         <v>4</v>
       </c>
-      <c r="F5" s="17">
+      <c r="F5" s="9">
         <f>F4+1</f>
         <v>10</v>
       </c>
-      <c r="G5" s="31" t="s">
-        <v>13</v>
-      </c>
-      <c r="H5" s="10"/>
-      <c r="I5" s="17">
-        <f t="shared" ref="I5:I19" si="0">F5-6</f>
+      <c r="G5" s="18" t="s">
+        <v>11</v>
+      </c>
+      <c r="H5" s="6"/>
+      <c r="I5" s="9">
+        <f t="shared" ref="I5:I19" si="1">F5-6</f>
         <v>4</v>
       </c>
     </row>
-    <row r="6" spans="1:9" x14ac:dyDescent="0.35">
-      <c r="A6" s="17">
-        <f t="shared" ref="A6:A19" si="1">A5+1</f>
+    <row r="6" spans="1:9" ht="29.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A6" s="9">
+        <f t="shared" ref="A6:A19" si="2">A5+1</f>
         <v>11</v>
       </c>
-      <c r="B6" s="31" t="s">
-        <v>10</v>
-      </c>
-      <c r="C6" s="10"/>
-      <c r="D6" s="17">
-        <f>A6-6</f>
-        <v>5</v>
-      </c>
-      <c r="F6" s="17">
-        <f t="shared" ref="F6:F19" si="2">F5+1</f>
-        <v>11</v>
-      </c>
-      <c r="G6" s="33" t="s">
+      <c r="B6" s="34" t="s">
         <v>15</v>
       </c>
-      <c r="H6" s="10"/>
-      <c r="I6" s="17">
+      <c r="C6" s="6"/>
+      <c r="D6" s="9">
         <f t="shared" si="0"/>
         <v>5</v>
       </c>
-    </row>
-    <row r="7" spans="1:9" x14ac:dyDescent="0.35">
-      <c r="A7" s="17">
+      <c r="F6" s="9">
+        <f t="shared" ref="F6:F19" si="3">F5+1</f>
+        <v>11</v>
+      </c>
+      <c r="G6" s="36" t="s">
+        <v>16</v>
+      </c>
+      <c r="H6" s="6"/>
+      <c r="I6" s="9">
+        <f t="shared" si="1"/>
+        <v>5</v>
+      </c>
+    </row>
+    <row r="7" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A7" s="9">
+        <f t="shared" si="2"/>
+        <v>12</v>
+      </c>
+      <c r="B7" s="18"/>
+      <c r="C7" s="6"/>
+      <c r="D7" s="9">
+        <f t="shared" si="0"/>
+        <v>6</v>
+      </c>
+      <c r="F7" s="9">
+        <f t="shared" si="3"/>
+        <v>12</v>
+      </c>
+      <c r="G7" s="22"/>
+      <c r="H7" s="6"/>
+      <c r="I7" s="9">
+        <f t="shared" si="1"/>
+        <v>6</v>
+      </c>
+    </row>
+    <row r="8" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A8" s="9">
+        <f t="shared" si="2"/>
+        <v>13</v>
+      </c>
+      <c r="B8" s="18"/>
+      <c r="C8" s="6"/>
+      <c r="D8" s="9">
+        <f t="shared" si="0"/>
+        <v>7</v>
+      </c>
+      <c r="F8" s="9">
+        <f t="shared" si="3"/>
+        <v>13</v>
+      </c>
+      <c r="G8" s="22"/>
+      <c r="H8" s="6"/>
+      <c r="I8" s="9">
+        <f t="shared" si="1"/>
+        <v>7</v>
+      </c>
+    </row>
+    <row r="9" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A9" s="9">
+        <f t="shared" si="2"/>
+        <v>14</v>
+      </c>
+      <c r="B9" s="19"/>
+      <c r="C9" s="6"/>
+      <c r="D9" s="9">
+        <f t="shared" si="0"/>
+        <v>8</v>
+      </c>
+      <c r="F9" s="9">
+        <f t="shared" si="3"/>
+        <v>14</v>
+      </c>
+      <c r="G9" s="10"/>
+      <c r="H9" s="6"/>
+      <c r="I9" s="9">
+        <f t="shared" si="1"/>
+        <v>8</v>
+      </c>
+    </row>
+    <row r="10" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A10" s="30">
+        <f t="shared" si="2"/>
+        <v>15</v>
+      </c>
+      <c r="B10" s="26" t="s">
+        <v>6</v>
+      </c>
+      <c r="C10" s="27"/>
+      <c r="D10" s="32">
+        <f t="shared" si="0"/>
+        <v>9</v>
+      </c>
+      <c r="F10" s="30">
+        <f t="shared" si="3"/>
+        <v>15</v>
+      </c>
+      <c r="G10" s="28" t="s">
+        <v>7</v>
+      </c>
+      <c r="H10" s="29"/>
+      <c r="I10" s="32">
+        <f>F10-6</f>
+        <v>9</v>
+      </c>
+    </row>
+    <row r="11" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A11" s="31"/>
+      <c r="B11" s="27"/>
+      <c r="C11" s="27"/>
+      <c r="D11" s="33"/>
+      <c r="F11" s="31"/>
+      <c r="G11" s="29"/>
+      <c r="H11" s="29"/>
+      <c r="I11" s="33"/>
+    </row>
+    <row r="12" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A12" s="9">
+        <f>A10+1</f>
+        <v>16</v>
+      </c>
+      <c r="B12" s="20" t="s">
+        <v>9</v>
+      </c>
+      <c r="C12" s="21"/>
+      <c r="D12" s="9">
+        <f t="shared" ref="D12:D19" si="4">A12-6</f>
+        <v>10</v>
+      </c>
+      <c r="F12" s="9">
+        <f>F10+1</f>
+        <v>16</v>
+      </c>
+      <c r="G12" s="20" t="s">
+        <v>10</v>
+      </c>
+      <c r="H12" s="21"/>
+      <c r="I12" s="9">
+        <f t="shared" si="1"/>
+        <v>10</v>
+      </c>
+    </row>
+    <row r="13" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A13" s="9">
+        <f t="shared" si="2"/>
+        <v>17</v>
+      </c>
+      <c r="B13" s="21"/>
+      <c r="C13" s="21"/>
+      <c r="D13" s="9">
+        <f t="shared" si="4"/>
+        <v>11</v>
+      </c>
+      <c r="F13" s="9">
+        <f t="shared" si="3"/>
+        <v>17</v>
+      </c>
+      <c r="G13" s="21"/>
+      <c r="H13" s="21"/>
+      <c r="I13" s="9">
+        <f t="shared" si="1"/>
+        <v>11</v>
+      </c>
+    </row>
+    <row r="14" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A14" s="9">
+        <f t="shared" si="2"/>
+        <v>18</v>
+      </c>
+      <c r="B14" s="6"/>
+      <c r="C14" s="12"/>
+      <c r="D14" s="9">
+        <f t="shared" si="4"/>
+        <v>12</v>
+      </c>
+      <c r="F14" s="9">
+        <f t="shared" si="3"/>
+        <v>18</v>
+      </c>
+      <c r="G14" s="6"/>
+      <c r="H14" s="11"/>
+      <c r="I14" s="9">
         <f t="shared" si="1"/>
         <v>12</v>
       </c>
-      <c r="B7" s="31"/>
-      <c r="C7" s="10"/>
-      <c r="D7" s="17">
-        <f>A7-6</f>
-        <v>6</v>
-      </c>
-      <c r="F7" s="17">
+    </row>
+    <row r="15" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A15" s="9">
         <f t="shared" si="2"/>
-        <v>12</v>
-      </c>
-      <c r="G7" s="34"/>
-      <c r="H7" s="10"/>
-      <c r="I7" s="17">
-        <f t="shared" si="0"/>
-        <v>6</v>
-      </c>
-    </row>
-    <row r="8" spans="1:9" x14ac:dyDescent="0.35">
-      <c r="A8" s="17">
+        <v>19</v>
+      </c>
+      <c r="B15" s="6"/>
+      <c r="C15" s="2"/>
+      <c r="D15" s="9">
+        <f t="shared" si="4"/>
+        <v>13</v>
+      </c>
+      <c r="F15" s="9">
+        <f t="shared" si="3"/>
+        <v>19</v>
+      </c>
+      <c r="G15" s="6"/>
+      <c r="H15" s="3"/>
+      <c r="I15" s="9">
         <f t="shared" si="1"/>
         <v>13</v>
       </c>
-      <c r="B8" s="31"/>
-      <c r="C8" s="10"/>
-      <c r="D8" s="17">
-        <f>A8-6</f>
-        <v>7</v>
-      </c>
-      <c r="F8" s="17">
+    </row>
+    <row r="16" spans="1:9" ht="30.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A16" s="9">
         <f t="shared" si="2"/>
+        <v>20</v>
+      </c>
+      <c r="B16" s="6"/>
+      <c r="C16" s="35" t="s">
+        <v>15</v>
+      </c>
+      <c r="D16" s="9">
+        <f t="shared" si="4"/>
+        <v>14</v>
+      </c>
+      <c r="F16" s="9">
+        <f t="shared" si="3"/>
+        <v>20</v>
+      </c>
+      <c r="G16" s="6"/>
+      <c r="H16" s="2" t="s">
         <v>13</v>
       </c>
-      <c r="G8" s="34"/>
-      <c r="H8" s="10"/>
-      <c r="I8" s="17">
-        <f t="shared" si="0"/>
-        <v>7</v>
-      </c>
-    </row>
-    <row r="9" spans="1:9" x14ac:dyDescent="0.35">
-      <c r="A9" s="17">
+      <c r="I16" s="9">
         <f t="shared" si="1"/>
         <v>14</v>
       </c>
-      <c r="B9" s="32"/>
-      <c r="C9" s="10"/>
-      <c r="D9" s="17">
-        <f>A9-6</f>
-        <v>8</v>
-      </c>
-      <c r="F9" s="17">
+    </row>
+    <row r="17" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A17" s="9">
         <f t="shared" si="2"/>
-        <v>14</v>
-      </c>
-      <c r="G9" s="18"/>
-      <c r="H9" s="10"/>
-      <c r="I9" s="17">
-        <f t="shared" si="0"/>
-        <v>8</v>
-      </c>
-    </row>
-    <row r="10" spans="1:9" x14ac:dyDescent="0.35">
-      <c r="A10" s="20">
+        <v>21</v>
+      </c>
+      <c r="B17" s="6"/>
+      <c r="C17" s="2"/>
+      <c r="D17" s="9">
+        <f t="shared" si="4"/>
+        <v>15</v>
+      </c>
+      <c r="F17" s="9">
+        <f t="shared" si="3"/>
+        <v>21</v>
+      </c>
+      <c r="G17" s="6"/>
+      <c r="H17" s="3"/>
+      <c r="I17" s="9">
         <f t="shared" si="1"/>
         <v>15</v>
       </c>
-      <c r="B10" s="14" t="s">
-        <v>6</v>
-      </c>
-      <c r="C10" s="15"/>
-      <c r="D10" s="23">
-        <f>A10-6</f>
-        <v>9</v>
-      </c>
-      <c r="F10" s="20">
-        <f t="shared" si="2"/>
-        <v>15</v>
-      </c>
-      <c r="G10" s="19" t="s">
-        <v>7</v>
-      </c>
-      <c r="H10" s="1"/>
-      <c r="I10" s="23">
-        <f>F10-6</f>
-        <v>9</v>
-      </c>
-    </row>
-    <row r="11" spans="1:9" x14ac:dyDescent="0.35">
-      <c r="A11" s="21"/>
-      <c r="B11" s="15"/>
-      <c r="C11" s="15"/>
-      <c r="D11" s="24"/>
-      <c r="F11" s="21"/>
-      <c r="G11" s="1"/>
-      <c r="H11" s="1"/>
-      <c r="I11" s="24"/>
-    </row>
-    <row r="12" spans="1:9" x14ac:dyDescent="0.35">
-      <c r="A12" s="17">
-        <f>A10+1</f>
-        <v>16</v>
-      </c>
-      <c r="B12" s="12" t="s">
-        <v>11</v>
-      </c>
-      <c r="C12" s="13"/>
-      <c r="D12" s="17">
-        <f>A12-6</f>
-        <v>10</v>
-      </c>
-      <c r="F12" s="17">
-        <f>F10+1</f>
-        <v>16</v>
-      </c>
-      <c r="G12" s="12" t="s">
-        <v>12</v>
-      </c>
-      <c r="H12" s="13"/>
-      <c r="I12" s="17">
-        <f t="shared" si="0"/>
-        <v>10</v>
-      </c>
-    </row>
-    <row r="13" spans="1:9" x14ac:dyDescent="0.35">
-      <c r="A13" s="17">
-        <f t="shared" si="1"/>
-        <v>17</v>
-      </c>
-      <c r="B13" s="13"/>
-      <c r="C13" s="13"/>
-      <c r="D13" s="17">
-        <f>A13-6</f>
-        <v>11</v>
-      </c>
-      <c r="F13" s="17">
-        <f t="shared" si="2"/>
-        <v>17</v>
-      </c>
-      <c r="G13" s="13"/>
-      <c r="H13" s="13"/>
-      <c r="I13" s="17">
-        <f t="shared" si="0"/>
-        <v>11</v>
-      </c>
-    </row>
-    <row r="14" spans="1:9" x14ac:dyDescent="0.35">
-      <c r="A14" s="17">
-        <f t="shared" si="1"/>
-        <v>18</v>
-      </c>
-      <c r="B14" s="10"/>
-      <c r="C14" s="25"/>
-      <c r="D14" s="17">
-        <f>A14-6</f>
-        <v>12</v>
-      </c>
-      <c r="F14" s="17">
-        <f t="shared" si="2"/>
-        <v>18</v>
-      </c>
-      <c r="G14" s="10"/>
-      <c r="H14" s="22"/>
-      <c r="I14" s="17">
-        <f t="shared" si="0"/>
-        <v>12</v>
-      </c>
-    </row>
-    <row r="15" spans="1:9" x14ac:dyDescent="0.35">
-      <c r="A15" s="17">
-        <f t="shared" si="1"/>
-        <v>19</v>
-      </c>
-      <c r="B15" s="10"/>
-      <c r="C15" s="6"/>
-      <c r="D15" s="17">
-        <f>A15-6</f>
-        <v>13</v>
-      </c>
-      <c r="F15" s="17">
-        <f t="shared" si="2"/>
-        <v>19</v>
-      </c>
-      <c r="G15" s="10"/>
-      <c r="H15" s="7"/>
-      <c r="I15" s="17">
-        <f t="shared" si="0"/>
-        <v>13</v>
-      </c>
-    </row>
-    <row r="16" spans="1:9" x14ac:dyDescent="0.35">
-      <c r="A16" s="17">
-        <f t="shared" si="1"/>
-        <v>20</v>
-      </c>
-      <c r="B16" s="10"/>
-      <c r="C16" s="6" t="s">
-        <v>10</v>
-      </c>
-      <c r="D16" s="17">
-        <f>A16-6</f>
-        <v>14</v>
-      </c>
-      <c r="F16" s="17">
-        <f t="shared" si="2"/>
-        <v>20</v>
-      </c>
-      <c r="G16" s="10"/>
-      <c r="H16" s="6" t="s">
-        <v>15</v>
-      </c>
-      <c r="I16" s="17">
-        <f t="shared" si="0"/>
-        <v>14</v>
-      </c>
-    </row>
-    <row r="17" spans="1:9" x14ac:dyDescent="0.35">
-      <c r="A17" s="17">
-        <f t="shared" si="1"/>
-        <v>21</v>
-      </c>
-      <c r="B17" s="10"/>
-      <c r="C17" s="6"/>
-      <c r="D17" s="17">
-        <f>A17-6</f>
-        <v>15</v>
-      </c>
-      <c r="F17" s="17">
-        <f t="shared" si="2"/>
-        <v>21</v>
-      </c>
-      <c r="G17" s="10"/>
-      <c r="H17" s="7"/>
-      <c r="I17" s="17">
-        <f t="shared" si="0"/>
-        <v>15</v>
-      </c>
-    </row>
-    <row r="18" spans="1:9" x14ac:dyDescent="0.35">
-      <c r="A18" s="17">
-        <f t="shared" si="1"/>
-        <v>22</v>
-      </c>
-      <c r="B18" s="10"/>
-      <c r="C18" s="6"/>
-      <c r="D18" s="17">
-        <f>A18-6</f>
-        <v>16</v>
-      </c>
-      <c r="F18" s="17">
+    </row>
+    <row r="18" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A18" s="9">
         <f t="shared" si="2"/>
         <v>22</v>
       </c>
-      <c r="G18" s="10"/>
-      <c r="H18" s="7"/>
-      <c r="I18" s="17">
-        <f t="shared" si="0"/>
+      <c r="B18" s="6"/>
+      <c r="C18" s="2"/>
+      <c r="D18" s="9">
+        <f t="shared" si="4"/>
         <v>16</v>
       </c>
-    </row>
-    <row r="19" spans="1:9" x14ac:dyDescent="0.35">
-      <c r="A19" s="18">
+      <c r="F18" s="9">
+        <f t="shared" si="3"/>
+        <v>22</v>
+      </c>
+      <c r="G18" s="6"/>
+      <c r="H18" s="3"/>
+      <c r="I18" s="9">
         <f t="shared" si="1"/>
-        <v>23</v>
-      </c>
-      <c r="B19" s="11"/>
-      <c r="C19" s="9"/>
-      <c r="D19" s="18">
-        <f>A19-6</f>
-        <v>17</v>
-      </c>
-      <c r="F19" s="18">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="19" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A19" s="10">
         <f t="shared" si="2"/>
         <v>23</v>
       </c>
-      <c r="G19" s="11"/>
-      <c r="H19" s="8"/>
-      <c r="I19" s="18">
-        <f t="shared" si="0"/>
+      <c r="B19" s="7"/>
+      <c r="C19" s="5"/>
+      <c r="D19" s="10">
+        <f t="shared" si="4"/>
+        <v>17</v>
+      </c>
+      <c r="F19" s="10">
+        <f t="shared" si="3"/>
+        <v>23</v>
+      </c>
+      <c r="G19" s="7"/>
+      <c r="H19" s="4"/>
+      <c r="I19" s="10">
+        <f t="shared" si="1"/>
         <v>17</v>
       </c>
     </row>

--- a/images/schedule.xlsx
+++ b/images/schedule.xlsx
@@ -5,11 +5,10 @@
   <workbookPr backupFile="false" showObjects="all" date1904="false"/>
   <workbookProtection/>
   <bookViews>
-    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="500" firstSheet="0" activeTab="1"/>
+    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="500" firstSheet="0" activeTab="0"/>
   </bookViews>
   <sheets>
-    <sheet name="Day1 - December 6th" sheetId="1" state="visible" r:id="rId2"/>
-    <sheet name="Day2 - December 7th" sheetId="2" state="visible" r:id="rId3"/>
+    <sheet name="Schedule" sheetId="1" state="visible" r:id="rId2"/>
   </sheets>
   <calcPr iterateCount="100" refMode="A1" iterate="false" iterateDelta="0.0001"/>
   <extLst>
@@ -21,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="31" uniqueCount="26">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="32" uniqueCount="27">
   <si>
     <t xml:space="preserve">6th December</t>
   </si>
@@ -90,6 +89,9 @@
   </si>
   <si>
     <t xml:space="preserve">The Brain Imaging Data Structure PET derivatives (Dr Martin Nørgaard)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Automated pipelines for PetSurfer (Dr Vincent Beliveau)</t>
   </si>
   <si>
     <t xml:space="preserve">Unconference / Reports of Projects and datathon</t>
@@ -111,7 +113,7 @@
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode="General"/>
   </numFmts>
-  <fonts count="7">
+  <fonts count="6">
     <font>
       <sz val="11"/>
       <color rgb="FF000000"/>
@@ -140,12 +142,6 @@
       <name val="Calibri"/>
       <family val="2"/>
       <charset val="1"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF373737"/>
-      <name val="Calibri"/>
-      <family val="2"/>
     </font>
     <font>
       <b val="true"/>
@@ -361,7 +357,7 @@
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="5" fillId="0" borderId="6" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="4" fillId="0" borderId="6" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
       <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -385,7 +381,7 @@
       <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="6" fillId="0" borderId="9" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="5" fillId="0" borderId="9" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -401,14 +397,14 @@
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="2" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
     <xf numFmtId="164" fontId="4" fillId="0" borderId="6" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="11" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
       <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
@@ -417,7 +413,7 @@
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="6" fillId="0" borderId="11" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="5" fillId="0" borderId="11" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -502,13 +498,13 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="true"/>
   </sheetPr>
-  <dimension ref="A2:I1048576"/>
+  <dimension ref="A1:I1048576"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="C12" activeCellId="0" sqref="C12"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="G13" activeCellId="0" sqref="G13"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="30.7421875" defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="30.73046875" defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="1" width="5.52"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="2" style="1" width="55.85"/>
@@ -521,7 +517,8 @@
     <col collapsed="false" customWidth="false" hidden="false" outlineLevel="0" max="1024" min="10" style="1" width="30.7"/>
   </cols>
   <sheetData>
-    <row r="2" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="1" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="2" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A2" s="2" t="s">
         <v>0</v>
       </c>
@@ -533,7 +530,7 @@
       <c r="H2" s="0"/>
       <c r="I2" s="0"/>
     </row>
-    <row r="3" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="3" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A3" s="3" t="s">
         <v>1</v>
       </c>
@@ -551,7 +548,7 @@
       <c r="H3" s="0"/>
       <c r="I3" s="0"/>
     </row>
-    <row r="4" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="4" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A4" s="6" t="n">
         <v>900</v>
       </c>
@@ -567,7 +564,7 @@
       <c r="H4" s="0"/>
       <c r="I4" s="0"/>
     </row>
-    <row r="5" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="5" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A5" s="6" t="n">
         <v>930</v>
       </c>
@@ -581,7 +578,7 @@
       <c r="H5" s="0"/>
       <c r="I5" s="0"/>
     </row>
-    <row r="6" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="6" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A6" s="9" t="n">
         <v>1000</v>
       </c>
@@ -597,7 +594,7 @@
       <c r="H6" s="0"/>
       <c r="I6" s="0"/>
     </row>
-    <row r="7" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="7" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A7" s="9" t="n">
         <v>1030</v>
       </c>
@@ -611,7 +608,7 @@
       <c r="H7" s="0"/>
       <c r="I7" s="0"/>
     </row>
-    <row r="8" customFormat="false" ht="15.7" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="8" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A8" s="9" t="n">
         <v>1100</v>
       </c>
@@ -627,7 +624,7 @@
       <c r="H8" s="0"/>
       <c r="I8" s="0"/>
     </row>
-    <row r="9" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="9" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A9" s="9" t="n">
         <v>1130</v>
       </c>
@@ -641,7 +638,7 @@
       <c r="H9" s="0"/>
       <c r="I9" s="0"/>
     </row>
-    <row r="10" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="10" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A10" s="9" t="n">
         <v>1200</v>
       </c>
@@ -655,7 +652,7 @@
       <c r="H10" s="0"/>
       <c r="I10" s="0"/>
     </row>
-    <row r="11" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="11" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A11" s="9" t="n">
         <v>1230</v>
       </c>
@@ -669,7 +666,7 @@
       <c r="H11" s="0"/>
       <c r="I11" s="0"/>
     </row>
-    <row r="12" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="12" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A12" s="9" t="n">
         <v>1300</v>
       </c>
@@ -683,7 +680,7 @@
       <c r="H12" s="0"/>
       <c r="I12" s="0"/>
     </row>
-    <row r="13" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="13" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A13" s="9" t="n">
         <v>1330</v>
       </c>
@@ -697,7 +694,7 @@
       <c r="H13" s="0"/>
       <c r="I13" s="0"/>
     </row>
-    <row r="14" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="14" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A14" s="9" t="n">
         <v>1400</v>
       </c>
@@ -711,7 +708,7 @@
       <c r="H14" s="0"/>
       <c r="I14" s="0"/>
     </row>
-    <row r="15" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="15" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A15" s="9" t="n">
         <v>1430</v>
       </c>
@@ -727,7 +724,7 @@
       <c r="H15" s="0"/>
       <c r="I15" s="0"/>
     </row>
-    <row r="16" customFormat="false" ht="13.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="16" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A16" s="14" t="n">
         <v>1500</v>
       </c>
@@ -743,7 +740,7 @@
       <c r="H16" s="0"/>
       <c r="I16" s="0"/>
     </row>
-    <row r="17" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="17" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A17" s="17" t="n">
         <v>1530</v>
       </c>
@@ -759,7 +756,7 @@
       <c r="H17" s="0"/>
       <c r="I17" s="0"/>
     </row>
-    <row r="18" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="18" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A18" s="9" t="n">
         <v>1600</v>
       </c>
@@ -775,7 +772,7 @@
       <c r="H18" s="0"/>
       <c r="I18" s="0"/>
     </row>
-    <row r="19" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="19" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A19" s="9" t="n">
         <v>1630</v>
       </c>
@@ -789,7 +786,7 @@
       <c r="H19" s="0"/>
       <c r="I19" s="0"/>
     </row>
-    <row r="20" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="20" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A20" s="9" t="n">
         <v>1700</v>
       </c>
@@ -805,7 +802,7 @@
       <c r="H20" s="0"/>
       <c r="I20" s="0"/>
     </row>
-    <row r="21" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="21" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A21" s="9" t="n">
         <v>1730</v>
       </c>
@@ -821,7 +818,7 @@
       <c r="H21" s="0"/>
       <c r="I21" s="0"/>
     </row>
-    <row r="22" customFormat="false" ht="13.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="22" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A22" s="9" t="n">
         <v>1800</v>
       </c>
@@ -837,7 +834,7 @@
       <c r="H22" s="0"/>
       <c r="I22" s="0"/>
     </row>
-    <row r="23" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="23" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A23" s="9" t="n">
         <v>1830</v>
       </c>
@@ -851,7 +848,7 @@
       <c r="H23" s="0"/>
       <c r="I23" s="0"/>
     </row>
-    <row r="24" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="24" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A24" s="9" t="n">
         <v>1900</v>
       </c>
@@ -867,7 +864,7 @@
       <c r="H24" s="0"/>
       <c r="I24" s="0"/>
     </row>
-    <row r="25" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="25" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A25" s="9" t="n">
         <v>1930</v>
       </c>
@@ -881,7 +878,7 @@
       <c r="H25" s="0"/>
       <c r="I25" s="0"/>
     </row>
-    <row r="26" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="26" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A26" s="9" t="n">
         <v>2000</v>
       </c>
@@ -895,7 +892,7 @@
       <c r="H26" s="0"/>
       <c r="I26" s="0"/>
     </row>
-    <row r="27" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="27" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A27" s="9" t="n">
         <v>2030</v>
       </c>
@@ -909,7 +906,7 @@
       <c r="H27" s="0"/>
       <c r="I27" s="0"/>
     </row>
-    <row r="28" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="28" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A28" s="9" t="n">
         <v>2100</v>
       </c>
@@ -923,7 +920,7 @@
       <c r="H28" s="0"/>
       <c r="I28" s="0"/>
     </row>
-    <row r="29" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="29" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A29" s="26" t="n">
         <v>2130</v>
       </c>
@@ -936,6 +933,310 @@
       <c r="G29" s="0"/>
       <c r="H29" s="0"/>
       <c r="I29" s="0"/>
+    </row>
+    <row r="31" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A31" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="B31" s="2"/>
+      <c r="C31" s="2"/>
+      <c r="D31" s="2"/>
+    </row>
+    <row r="32" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A32" s="3" t="s">
+        <v>1</v>
+      </c>
+      <c r="B32" s="22" t="s">
+        <v>2</v>
+      </c>
+      <c r="C32" s="5" t="s">
+        <v>3</v>
+      </c>
+      <c r="D32" s="5" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="33" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A33" s="6" t="n">
+        <v>900</v>
+      </c>
+      <c r="B33" s="27" t="s">
+        <v>17</v>
+      </c>
+      <c r="C33" s="8"/>
+      <c r="D33" s="6" t="n">
+        <v>300</v>
+      </c>
+    </row>
+    <row r="34" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A34" s="6" t="n">
+        <v>930</v>
+      </c>
+      <c r="B34" s="27"/>
+      <c r="C34" s="8"/>
+      <c r="D34" s="6" t="n">
+        <v>330</v>
+      </c>
+    </row>
+    <row r="35" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A35" s="9" t="n">
+        <v>1000</v>
+      </c>
+      <c r="B35" s="27" t="s">
+        <v>18</v>
+      </c>
+      <c r="C35" s="8"/>
+      <c r="D35" s="9" t="n">
+        <v>400</v>
+      </c>
+    </row>
+    <row r="36" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A36" s="9" t="n">
+        <v>1030</v>
+      </c>
+      <c r="B36" s="27"/>
+      <c r="C36" s="8"/>
+      <c r="D36" s="9" t="n">
+        <v>430</v>
+      </c>
+    </row>
+    <row r="37" customFormat="false" ht="13.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A37" s="9" t="n">
+        <v>1100</v>
+      </c>
+      <c r="B37" s="11" t="s">
+        <v>19</v>
+      </c>
+      <c r="C37" s="8"/>
+      <c r="D37" s="9" t="n">
+        <v>500</v>
+      </c>
+    </row>
+    <row r="38" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A38" s="9" t="n">
+        <v>1130</v>
+      </c>
+      <c r="B38" s="11"/>
+      <c r="C38" s="8"/>
+      <c r="D38" s="9" t="n">
+        <v>530</v>
+      </c>
+    </row>
+    <row r="39" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A39" s="9" t="n">
+        <v>1200</v>
+      </c>
+      <c r="B39" s="11"/>
+      <c r="C39" s="8"/>
+      <c r="D39" s="9" t="n">
+        <v>600</v>
+      </c>
+    </row>
+    <row r="40" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A40" s="9" t="n">
+        <v>1230</v>
+      </c>
+      <c r="B40" s="11"/>
+      <c r="C40" s="8"/>
+      <c r="D40" s="9" t="n">
+        <v>630</v>
+      </c>
+    </row>
+    <row r="41" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A41" s="9" t="n">
+        <v>1300</v>
+      </c>
+      <c r="B41" s="11"/>
+      <c r="C41" s="8"/>
+      <c r="D41" s="9" t="n">
+        <v>700</v>
+      </c>
+    </row>
+    <row r="42" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A42" s="9" t="n">
+        <v>1330</v>
+      </c>
+      <c r="B42" s="11"/>
+      <c r="C42" s="8"/>
+      <c r="D42" s="9" t="n">
+        <v>730</v>
+      </c>
+    </row>
+    <row r="43" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A43" s="9" t="n">
+        <v>1400</v>
+      </c>
+      <c r="B43" s="11"/>
+      <c r="C43" s="8"/>
+      <c r="D43" s="9" t="n">
+        <v>800</v>
+      </c>
+    </row>
+    <row r="44" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A44" s="9" t="n">
+        <v>1430</v>
+      </c>
+      <c r="B44" s="11"/>
+      <c r="C44" s="7" t="s">
+        <v>20</v>
+      </c>
+      <c r="D44" s="9" t="n">
+        <v>830</v>
+      </c>
+    </row>
+    <row r="45" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A45" s="14" t="n">
+        <v>1500</v>
+      </c>
+      <c r="B45" s="28" t="s">
+        <v>21</v>
+      </c>
+      <c r="C45" s="28"/>
+      <c r="D45" s="16" t="n">
+        <v>900</v>
+      </c>
+    </row>
+    <row r="46" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A46" s="17" t="n">
+        <v>1530</v>
+      </c>
+      <c r="B46" s="29" t="s">
+        <v>22</v>
+      </c>
+      <c r="C46" s="29"/>
+      <c r="D46" s="19" t="n">
+        <v>930</v>
+      </c>
+    </row>
+    <row r="47" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A47" s="9" t="n">
+        <v>1600</v>
+      </c>
+      <c r="B47" s="20" t="s">
+        <v>23</v>
+      </c>
+      <c r="C47" s="20"/>
+      <c r="D47" s="9" t="n">
+        <v>1000</v>
+      </c>
+    </row>
+    <row r="48" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A48" s="9" t="n">
+        <v>1630</v>
+      </c>
+      <c r="B48" s="20"/>
+      <c r="C48" s="20"/>
+      <c r="D48" s="9" t="n">
+        <v>1030</v>
+      </c>
+    </row>
+    <row r="49" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A49" s="9" t="n">
+        <v>1700</v>
+      </c>
+      <c r="B49" s="21"/>
+      <c r="C49" s="30" t="s">
+        <v>24</v>
+      </c>
+      <c r="D49" s="9" t="n">
+        <v>1100</v>
+      </c>
+    </row>
+    <row r="50" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A50" s="9" t="n">
+        <v>1730</v>
+      </c>
+      <c r="B50" s="8"/>
+      <c r="C50" s="31" t="s">
+        <v>25</v>
+      </c>
+      <c r="D50" s="9" t="n">
+        <v>1130</v>
+      </c>
+    </row>
+    <row r="51" customFormat="false" ht="13.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A51" s="9" t="n">
+        <v>1800</v>
+      </c>
+      <c r="B51" s="8"/>
+      <c r="C51" s="32" t="s">
+        <v>14</v>
+      </c>
+      <c r="D51" s="9" t="n">
+        <v>1200</v>
+      </c>
+    </row>
+    <row r="52" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A52" s="9" t="n">
+        <v>1830</v>
+      </c>
+      <c r="B52" s="8"/>
+      <c r="C52" s="32"/>
+      <c r="D52" s="9" t="n">
+        <v>1230</v>
+      </c>
+    </row>
+    <row r="53" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A53" s="9" t="n">
+        <v>1900</v>
+      </c>
+      <c r="B53" s="8"/>
+      <c r="C53" s="33" t="s">
+        <v>26</v>
+      </c>
+      <c r="D53" s="9" t="n">
+        <v>1300</v>
+      </c>
+    </row>
+    <row r="54" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A54" s="9" t="n">
+        <v>1930</v>
+      </c>
+      <c r="B54" s="8"/>
+      <c r="C54" s="33"/>
+      <c r="D54" s="9" t="n">
+        <v>1330</v>
+      </c>
+    </row>
+    <row r="55" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A55" s="9" t="n">
+        <v>2000</v>
+      </c>
+      <c r="B55" s="8"/>
+      <c r="C55" s="33"/>
+      <c r="D55" s="9" t="n">
+        <v>1400</v>
+      </c>
+    </row>
+    <row r="56" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A56" s="9" t="n">
+        <v>2030</v>
+      </c>
+      <c r="B56" s="8"/>
+      <c r="C56" s="33"/>
+      <c r="D56" s="9" t="n">
+        <v>1430</v>
+      </c>
+    </row>
+    <row r="57" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A57" s="9" t="n">
+        <v>2100</v>
+      </c>
+      <c r="B57" s="8"/>
+      <c r="C57" s="33"/>
+      <c r="D57" s="9" t="n">
+        <v>1500</v>
+      </c>
+    </row>
+    <row r="58" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A58" s="9" t="n">
+        <v>2130</v>
+      </c>
+      <c r="B58" s="12"/>
+      <c r="C58" s="33"/>
+      <c r="D58" s="26" t="n">
+        <v>1530</v>
+      </c>
     </row>
     <row r="1048568" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
     <row r="1048569" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
@@ -947,7 +1248,7 @@
     <row r="1048575" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
     <row r="1048576" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
   </sheetData>
-  <mergeCells count="9">
+  <mergeCells count="18">
     <mergeCell ref="A2:D2"/>
     <mergeCell ref="B4:B5"/>
     <mergeCell ref="B6:B7"/>
@@ -957,6 +1258,15 @@
     <mergeCell ref="B18:C19"/>
     <mergeCell ref="C22:C23"/>
     <mergeCell ref="C24:C29"/>
+    <mergeCell ref="A31:D31"/>
+    <mergeCell ref="B33:B34"/>
+    <mergeCell ref="B35:B36"/>
+    <mergeCell ref="B37:B44"/>
+    <mergeCell ref="B45:C45"/>
+    <mergeCell ref="B46:C46"/>
+    <mergeCell ref="B47:C48"/>
+    <mergeCell ref="C51:C52"/>
+    <mergeCell ref="C53:C58"/>
   </mergeCells>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="true" verticalCentered="true"/>
   <pageMargins left="0" right="0" top="0" bottom="0" header="0.511805555555555" footer="0.511805555555555"/>
@@ -966,347 +1276,4 @@
     <oddFooter/>
   </headerFooter>
 </worksheet>
-</file>
-
-<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-  <sheetPr filterMode="false">
-    <pageSetUpPr fitToPage="false"/>
-  </sheetPr>
-  <dimension ref="A2:D29"/>
-  <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="B4" activeCellId="0" sqref="B4"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultColWidth="11.53515625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
-  <cols>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="5.6"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="55.76"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="0" width="55.85"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="4" min="4" style="0" width="5.6"/>
-  </cols>
-  <sheetData>
-    <row r="2" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A2" s="2" t="s">
-        <v>16</v>
-      </c>
-      <c r="B2" s="2"/>
-      <c r="C2" s="2"/>
-      <c r="D2" s="2"/>
-    </row>
-    <row r="3" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A3" s="3" t="s">
-        <v>1</v>
-      </c>
-      <c r="B3" s="22" t="s">
-        <v>2</v>
-      </c>
-      <c r="C3" s="5" t="s">
-        <v>3</v>
-      </c>
-      <c r="D3" s="5" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="4" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A4" s="6" t="n">
-        <v>900</v>
-      </c>
-      <c r="B4" s="27" t="s">
-        <v>17</v>
-      </c>
-      <c r="C4" s="8"/>
-      <c r="D4" s="6" t="n">
-        <v>300</v>
-      </c>
-    </row>
-    <row r="5" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A5" s="6" t="n">
-        <v>930</v>
-      </c>
-      <c r="B5" s="27"/>
-      <c r="C5" s="8"/>
-      <c r="D5" s="6" t="n">
-        <v>330</v>
-      </c>
-    </row>
-    <row r="6" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A6" s="9" t="n">
-        <v>1000</v>
-      </c>
-      <c r="B6" s="27" t="s">
-        <v>18</v>
-      </c>
-      <c r="C6" s="8"/>
-      <c r="D6" s="9" t="n">
-        <v>400</v>
-      </c>
-    </row>
-    <row r="7" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A7" s="9" t="n">
-        <v>1030</v>
-      </c>
-      <c r="B7" s="27"/>
-      <c r="C7" s="8"/>
-      <c r="D7" s="9" t="n">
-        <v>430</v>
-      </c>
-    </row>
-    <row r="8" customFormat="false" ht="13.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A8" s="9" t="n">
-        <v>1100</v>
-      </c>
-      <c r="B8" s="11" t="s">
-        <v>19</v>
-      </c>
-      <c r="C8" s="8"/>
-      <c r="D8" s="9" t="n">
-        <v>500</v>
-      </c>
-    </row>
-    <row r="9" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A9" s="9" t="n">
-        <v>1130</v>
-      </c>
-      <c r="B9" s="11"/>
-      <c r="C9" s="8"/>
-      <c r="D9" s="9" t="n">
-        <v>530</v>
-      </c>
-    </row>
-    <row r="10" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A10" s="9" t="n">
-        <v>1200</v>
-      </c>
-      <c r="B10" s="11"/>
-      <c r="C10" s="8"/>
-      <c r="D10" s="9" t="n">
-        <v>600</v>
-      </c>
-    </row>
-    <row r="11" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A11" s="9" t="n">
-        <v>1230</v>
-      </c>
-      <c r="B11" s="11"/>
-      <c r="C11" s="8"/>
-      <c r="D11" s="9" t="n">
-        <v>630</v>
-      </c>
-    </row>
-    <row r="12" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A12" s="9" t="n">
-        <v>1300</v>
-      </c>
-      <c r="B12" s="11"/>
-      <c r="C12" s="8"/>
-      <c r="D12" s="9" t="n">
-        <v>700</v>
-      </c>
-    </row>
-    <row r="13" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A13" s="9" t="n">
-        <v>1330</v>
-      </c>
-      <c r="B13" s="11"/>
-      <c r="C13" s="8"/>
-      <c r="D13" s="9" t="n">
-        <v>730</v>
-      </c>
-    </row>
-    <row r="14" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A14" s="9" t="n">
-        <v>1400</v>
-      </c>
-      <c r="B14" s="11"/>
-      <c r="C14" s="8"/>
-      <c r="D14" s="9" t="n">
-        <v>800</v>
-      </c>
-    </row>
-    <row r="15" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A15" s="9" t="n">
-        <v>1430</v>
-      </c>
-      <c r="B15" s="11"/>
-      <c r="C15" s="28" t="s">
-        <v>20</v>
-      </c>
-      <c r="D15" s="9" t="n">
-        <v>830</v>
-      </c>
-    </row>
-    <row r="16" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A16" s="14" t="n">
-        <v>1500</v>
-      </c>
-      <c r="B16" s="11"/>
-      <c r="C16" s="28"/>
-      <c r="D16" s="16" t="n">
-        <v>900</v>
-      </c>
-    </row>
-    <row r="17" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A17" s="17" t="n">
-        <v>1530</v>
-      </c>
-      <c r="B17" s="29" t="s">
-        <v>21</v>
-      </c>
-      <c r="C17" s="29"/>
-      <c r="D17" s="19" t="n">
-        <v>930</v>
-      </c>
-    </row>
-    <row r="18" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A18" s="9" t="n">
-        <v>1600</v>
-      </c>
-      <c r="B18" s="20" t="s">
-        <v>22</v>
-      </c>
-      <c r="C18" s="20"/>
-      <c r="D18" s="9" t="n">
-        <v>1000</v>
-      </c>
-    </row>
-    <row r="19" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A19" s="9" t="n">
-        <v>1630</v>
-      </c>
-      <c r="B19" s="20"/>
-      <c r="C19" s="20"/>
-      <c r="D19" s="9" t="n">
-        <v>1030</v>
-      </c>
-    </row>
-    <row r="20" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A20" s="9" t="n">
-        <v>1700</v>
-      </c>
-      <c r="B20" s="21"/>
-      <c r="C20" s="30" t="s">
-        <v>23</v>
-      </c>
-      <c r="D20" s="9" t="n">
-        <v>1100</v>
-      </c>
-    </row>
-    <row r="21" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A21" s="9" t="n">
-        <v>1730</v>
-      </c>
-      <c r="B21" s="8"/>
-      <c r="C21" s="31" t="s">
-        <v>24</v>
-      </c>
-      <c r="D21" s="9" t="n">
-        <v>1130</v>
-      </c>
-    </row>
-    <row r="22" customFormat="false" ht="13.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A22" s="9" t="n">
-        <v>1800</v>
-      </c>
-      <c r="B22" s="8"/>
-      <c r="C22" s="32" t="s">
-        <v>14</v>
-      </c>
-      <c r="D22" s="9" t="n">
-        <v>1200</v>
-      </c>
-    </row>
-    <row r="23" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A23" s="9" t="n">
-        <v>1830</v>
-      </c>
-      <c r="B23" s="8"/>
-      <c r="C23" s="32"/>
-      <c r="D23" s="9" t="n">
-        <v>1230</v>
-      </c>
-    </row>
-    <row r="24" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A24" s="9" t="n">
-        <v>1900</v>
-      </c>
-      <c r="B24" s="8"/>
-      <c r="C24" s="33" t="s">
-        <v>25</v>
-      </c>
-      <c r="D24" s="9" t="n">
-        <v>1300</v>
-      </c>
-    </row>
-    <row r="25" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A25" s="9" t="n">
-        <v>1930</v>
-      </c>
-      <c r="B25" s="8"/>
-      <c r="C25" s="33"/>
-      <c r="D25" s="9" t="n">
-        <v>1330</v>
-      </c>
-    </row>
-    <row r="26" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A26" s="9" t="n">
-        <v>2000</v>
-      </c>
-      <c r="B26" s="8"/>
-      <c r="C26" s="33"/>
-      <c r="D26" s="9" t="n">
-        <v>1400</v>
-      </c>
-    </row>
-    <row r="27" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A27" s="9" t="n">
-        <v>2030</v>
-      </c>
-      <c r="B27" s="8"/>
-      <c r="C27" s="33"/>
-      <c r="D27" s="9" t="n">
-        <v>1430</v>
-      </c>
-    </row>
-    <row r="28" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A28" s="9" t="n">
-        <v>2100</v>
-      </c>
-      <c r="B28" s="8"/>
-      <c r="C28" s="33"/>
-      <c r="D28" s="9" t="n">
-        <v>1500</v>
-      </c>
-    </row>
-    <row r="29" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A29" s="9" t="n">
-        <v>2130</v>
-      </c>
-      <c r="B29" s="12"/>
-      <c r="C29" s="33"/>
-      <c r="D29" s="26" t="n">
-        <v>1530</v>
-      </c>
-    </row>
-  </sheetData>
-  <mergeCells count="9">
-    <mergeCell ref="A2:D2"/>
-    <mergeCell ref="B4:B5"/>
-    <mergeCell ref="B6:B7"/>
-    <mergeCell ref="B8:B16"/>
-    <mergeCell ref="C15:C16"/>
-    <mergeCell ref="B17:C17"/>
-    <mergeCell ref="B18:C19"/>
-    <mergeCell ref="C22:C23"/>
-    <mergeCell ref="C24:C29"/>
-  </mergeCells>
-  <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
-  <pageMargins left="0.7875" right="0.7875" top="1.05277777777778" bottom="1.05277777777778" header="0.7875" footer="0.7875"/>
-  <pageSetup paperSize="1" scale="100" firstPageNumber="0" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" blackAndWhite="false" draft="false" cellComments="none" useFirstPageNumber="false" horizontalDpi="300" verticalDpi="300" copies="1"/>
-  <headerFooter differentFirst="false" differentOddEven="false">
-    <oddHeader>&amp;C&amp;"Times New Roman,Regular"&amp;12&amp;A</oddHeader>
-    <oddFooter>&amp;C&amp;"Times New Roman,Regular"&amp;12Page &amp;P</oddFooter>
-  </headerFooter>
-</worksheet>
 </file>
--- a/images/schedule.xlsx
+++ b/images/schedule.xlsx
@@ -53,7 +53,7 @@
     <t xml:space="preserve">The Brain Imaging Data Structure PET extension (Dr Melanie Ganz)</t>
   </si>
   <si>
-    <t xml:space="preserve">An overview of PetSurfer (Dr Douglas Greve)</t>
+    <t xml:space="preserve">An overview of PetSurfer (Dr Douglas N. Greve)</t>
   </si>
   <si>
     <t xml:space="preserve">Unconference / Projects Presentation</t>
@@ -137,16 +137,16 @@
       <family val="0"/>
     </font>
     <font>
+      <b val="true"/>
       <sz val="11"/>
-      <color rgb="FF373737"/>
+      <color rgb="FF000000"/>
       <name val="Calibri"/>
       <family val="2"/>
       <charset val="1"/>
     </font>
     <font>
-      <b val="true"/>
       <sz val="11"/>
-      <color rgb="FF000000"/>
+      <color rgb="FF373737"/>
       <name val="Calibri"/>
       <family val="2"/>
       <charset val="1"/>
@@ -284,7 +284,7 @@
     <xf numFmtId="42" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
   </cellStyleXfs>
-  <cellXfs count="34">
+  <cellXfs count="33">
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
@@ -293,7 +293,7 @@
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
       <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -309,7 +309,7 @@
       <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="false" applyProtection="false">
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="5" xfId="0" applyFont="true" applyBorder="true" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -321,10 +321,6 @@
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="5" xfId="0" applyFont="true" applyBorder="true" applyAlignment="false" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="5" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
@@ -345,7 +341,7 @@
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="4" fillId="0" borderId="6" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="5" fillId="0" borderId="6" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
       <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -357,7 +353,7 @@
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="4" fillId="0" borderId="6" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="5" fillId="0" borderId="6" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
       <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -381,7 +377,7 @@
       <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="5" fillId="0" borderId="9" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="4" fillId="0" borderId="9" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -397,11 +393,11 @@
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="4" fillId="0" borderId="6" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="5" fillId="0" borderId="6" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="6" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -413,7 +409,7 @@
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="5" fillId="0" borderId="11" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="4" fillId="0" borderId="11" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -501,7 +497,7 @@
   <dimension ref="A1:I1048576"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="G13" activeCellId="0" sqref="G13"/>
+      <selection pane="topLeft" activeCell="G12" activeCellId="0" sqref="G12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="30.73046875" defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -579,14 +575,14 @@
       <c r="I5" s="0"/>
     </row>
     <row r="6" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A6" s="9" t="n">
+      <c r="A6" s="6" t="n">
         <v>1000</v>
       </c>
-      <c r="B6" s="10" t="s">
+      <c r="B6" s="9" t="s">
         <v>6</v>
       </c>
       <c r="C6" s="8"/>
-      <c r="D6" s="9" t="n">
+      <c r="D6" s="6" t="n">
         <v>400</v>
       </c>
       <c r="F6" s="0"/>
@@ -595,12 +591,12 @@
       <c r="I6" s="0"/>
     </row>
     <row r="7" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A7" s="9" t="n">
+      <c r="A7" s="6" t="n">
         <v>1030</v>
       </c>
-      <c r="B7" s="10"/>
+      <c r="B7" s="9"/>
       <c r="C7" s="8"/>
-      <c r="D7" s="9" t="n">
+      <c r="D7" s="6" t="n">
         <v>430</v>
       </c>
       <c r="F7" s="0"/>
@@ -609,14 +605,14 @@
       <c r="I7" s="0"/>
     </row>
     <row r="8" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A8" s="9" t="n">
+      <c r="A8" s="6" t="n">
         <v>1100</v>
       </c>
-      <c r="B8" s="11" t="s">
+      <c r="B8" s="10" t="s">
         <v>7</v>
       </c>
       <c r="C8" s="8"/>
-      <c r="D8" s="9" t="n">
+      <c r="D8" s="6" t="n">
         <v>500</v>
       </c>
       <c r="F8" s="0"/>
@@ -625,12 +621,12 @@
       <c r="I8" s="0"/>
     </row>
     <row r="9" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A9" s="9" t="n">
+      <c r="A9" s="6" t="n">
         <v>1130</v>
       </c>
-      <c r="B9" s="11"/>
+      <c r="B9" s="10"/>
       <c r="C9" s="8"/>
-      <c r="D9" s="9" t="n">
+      <c r="D9" s="6" t="n">
         <v>530</v>
       </c>
       <c r="F9" s="0"/>
@@ -639,12 +635,12 @@
       <c r="I9" s="0"/>
     </row>
     <row r="10" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A10" s="9" t="n">
+      <c r="A10" s="6" t="n">
         <v>1200</v>
       </c>
-      <c r="B10" s="11"/>
+      <c r="B10" s="10"/>
       <c r="C10" s="8"/>
-      <c r="D10" s="9" t="n">
+      <c r="D10" s="6" t="n">
         <v>600</v>
       </c>
       <c r="F10" s="0"/>
@@ -653,12 +649,12 @@
       <c r="I10" s="0"/>
     </row>
     <row r="11" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A11" s="9" t="n">
+      <c r="A11" s="6" t="n">
         <v>1230</v>
       </c>
-      <c r="B11" s="11"/>
+      <c r="B11" s="10"/>
       <c r="C11" s="8"/>
-      <c r="D11" s="9" t="n">
+      <c r="D11" s="6" t="n">
         <v>630</v>
       </c>
       <c r="F11" s="0"/>
@@ -667,12 +663,12 @@
       <c r="I11" s="0"/>
     </row>
     <row r="12" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A12" s="9" t="n">
+      <c r="A12" s="6" t="n">
         <v>1300</v>
       </c>
-      <c r="B12" s="11"/>
+      <c r="B12" s="10"/>
       <c r="C12" s="8"/>
-      <c r="D12" s="9" t="n">
+      <c r="D12" s="6" t="n">
         <v>700</v>
       </c>
       <c r="F12" s="0"/>
@@ -681,12 +677,12 @@
       <c r="I12" s="0"/>
     </row>
     <row r="13" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A13" s="9" t="n">
+      <c r="A13" s="6" t="n">
         <v>1330</v>
       </c>
-      <c r="B13" s="11"/>
+      <c r="B13" s="10"/>
       <c r="C13" s="8"/>
-      <c r="D13" s="9" t="n">
+      <c r="D13" s="6" t="n">
         <v>730</v>
       </c>
       <c r="F13" s="0"/>
@@ -695,12 +691,12 @@
       <c r="I13" s="0"/>
     </row>
     <row r="14" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A14" s="9" t="n">
+      <c r="A14" s="6" t="n">
         <v>1400</v>
       </c>
-      <c r="B14" s="11"/>
-      <c r="C14" s="12"/>
-      <c r="D14" s="9" t="n">
+      <c r="B14" s="10"/>
+      <c r="C14" s="11"/>
+      <c r="D14" s="6" t="n">
         <v>800</v>
       </c>
       <c r="F14" s="0"/>
@@ -709,14 +705,14 @@
       <c r="I14" s="0"/>
     </row>
     <row r="15" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A15" s="9" t="n">
+      <c r="A15" s="6" t="n">
         <v>1430</v>
       </c>
-      <c r="B15" s="11"/>
-      <c r="C15" s="13" t="s">
+      <c r="B15" s="10"/>
+      <c r="C15" s="12" t="s">
         <v>8</v>
       </c>
-      <c r="D15" s="9" t="n">
+      <c r="D15" s="6" t="n">
         <v>830</v>
       </c>
       <c r="F15" s="0"/>
@@ -725,14 +721,14 @@
       <c r="I15" s="0"/>
     </row>
     <row r="16" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A16" s="14" t="n">
+      <c r="A16" s="13" t="n">
         <v>1500</v>
       </c>
-      <c r="B16" s="15" t="s">
+      <c r="B16" s="14" t="s">
         <v>9</v>
       </c>
-      <c r="C16" s="15"/>
-      <c r="D16" s="16" t="n">
+      <c r="C16" s="14"/>
+      <c r="D16" s="15" t="n">
         <v>900</v>
       </c>
       <c r="F16" s="0"/>
@@ -741,14 +737,14 @@
       <c r="I16" s="0"/>
     </row>
     <row r="17" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A17" s="17" t="n">
+      <c r="A17" s="16" t="n">
         <v>1530</v>
       </c>
-      <c r="B17" s="18" t="s">
+      <c r="B17" s="17" t="s">
         <v>10</v>
       </c>
-      <c r="C17" s="18"/>
-      <c r="D17" s="19" t="n">
+      <c r="C17" s="17"/>
+      <c r="D17" s="18" t="n">
         <v>930</v>
       </c>
       <c r="F17" s="0"/>
@@ -757,14 +753,14 @@
       <c r="I17" s="0"/>
     </row>
     <row r="18" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A18" s="9" t="n">
+      <c r="A18" s="6" t="n">
         <v>1600</v>
       </c>
-      <c r="B18" s="20" t="s">
+      <c r="B18" s="19" t="s">
         <v>11</v>
       </c>
-      <c r="C18" s="20"/>
-      <c r="D18" s="9" t="n">
+      <c r="C18" s="19"/>
+      <c r="D18" s="6" t="n">
         <v>1000</v>
       </c>
       <c r="F18" s="0"/>
@@ -773,12 +769,12 @@
       <c r="I18" s="0"/>
     </row>
     <row r="19" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A19" s="9" t="n">
+      <c r="A19" s="6" t="n">
         <v>1630</v>
       </c>
-      <c r="B19" s="20"/>
-      <c r="C19" s="20"/>
-      <c r="D19" s="9" t="n">
+      <c r="B19" s="19"/>
+      <c r="C19" s="19"/>
+      <c r="D19" s="6" t="n">
         <v>1030</v>
       </c>
       <c r="F19" s="0"/>
@@ -787,14 +783,14 @@
       <c r="I19" s="0"/>
     </row>
     <row r="20" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A20" s="9" t="n">
+      <c r="A20" s="6" t="n">
         <v>1700</v>
       </c>
-      <c r="B20" s="21"/>
-      <c r="C20" s="22" t="s">
+      <c r="B20" s="20"/>
+      <c r="C20" s="21" t="s">
         <v>12</v>
       </c>
-      <c r="D20" s="9" t="n">
+      <c r="D20" s="6" t="n">
         <v>1100</v>
       </c>
       <c r="F20" s="0"/>
@@ -803,14 +799,14 @@
       <c r="I20" s="0"/>
     </row>
     <row r="21" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A21" s="9" t="n">
+      <c r="A21" s="6" t="n">
         <v>1730</v>
       </c>
       <c r="B21" s="8"/>
-      <c r="C21" s="23" t="s">
+      <c r="C21" s="22" t="s">
         <v>13</v>
       </c>
-      <c r="D21" s="9" t="n">
+      <c r="D21" s="6" t="n">
         <v>1130</v>
       </c>
       <c r="F21" s="0"/>
@@ -819,14 +815,14 @@
       <c r="I21" s="0"/>
     </row>
     <row r="22" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A22" s="9" t="n">
+      <c r="A22" s="6" t="n">
         <v>1800</v>
       </c>
       <c r="B22" s="8"/>
-      <c r="C22" s="24" t="s">
+      <c r="C22" s="23" t="s">
         <v>14</v>
       </c>
-      <c r="D22" s="9" t="n">
+      <c r="D22" s="6" t="n">
         <v>1200</v>
       </c>
       <c r="F22" s="0"/>
@@ -835,12 +831,12 @@
       <c r="I22" s="0"/>
     </row>
     <row r="23" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A23" s="9" t="n">
+      <c r="A23" s="6" t="n">
         <v>1830</v>
       </c>
       <c r="B23" s="8"/>
-      <c r="C23" s="24"/>
-      <c r="D23" s="9" t="n">
+      <c r="C23" s="23"/>
+      <c r="D23" s="6" t="n">
         <v>1230</v>
       </c>
       <c r="F23" s="0"/>
@@ -849,14 +845,14 @@
       <c r="I23" s="0"/>
     </row>
     <row r="24" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A24" s="9" t="n">
+      <c r="A24" s="6" t="n">
         <v>1900</v>
       </c>
       <c r="B24" s="8"/>
-      <c r="C24" s="25" t="s">
+      <c r="C24" s="24" t="s">
         <v>15</v>
       </c>
-      <c r="D24" s="9" t="n">
+      <c r="D24" s="6" t="n">
         <v>1300</v>
       </c>
       <c r="F24" s="0"/>
@@ -865,12 +861,12 @@
       <c r="I24" s="0"/>
     </row>
     <row r="25" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A25" s="9" t="n">
+      <c r="A25" s="6" t="n">
         <v>1930</v>
       </c>
       <c r="B25" s="8"/>
-      <c r="C25" s="25"/>
-      <c r="D25" s="9" t="n">
+      <c r="C25" s="24"/>
+      <c r="D25" s="6" t="n">
         <v>1330</v>
       </c>
       <c r="F25" s="0"/>
@@ -879,12 +875,12 @@
       <c r="I25" s="0"/>
     </row>
     <row r="26" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A26" s="9" t="n">
+      <c r="A26" s="6" t="n">
         <v>2000</v>
       </c>
       <c r="B26" s="8"/>
-      <c r="C26" s="25"/>
-      <c r="D26" s="9" t="n">
+      <c r="C26" s="24"/>
+      <c r="D26" s="6" t="n">
         <v>1400</v>
       </c>
       <c r="F26" s="0"/>
@@ -893,12 +889,12 @@
       <c r="I26" s="0"/>
     </row>
     <row r="27" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A27" s="9" t="n">
+      <c r="A27" s="6" t="n">
         <v>2030</v>
       </c>
       <c r="B27" s="8"/>
-      <c r="C27" s="25"/>
-      <c r="D27" s="9" t="n">
+      <c r="C27" s="24"/>
+      <c r="D27" s="6" t="n">
         <v>1430</v>
       </c>
       <c r="F27" s="0"/>
@@ -907,12 +903,12 @@
       <c r="I27" s="0"/>
     </row>
     <row r="28" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A28" s="9" t="n">
+      <c r="A28" s="6" t="n">
         <v>2100</v>
       </c>
       <c r="B28" s="8"/>
-      <c r="C28" s="25"/>
-      <c r="D28" s="9" t="n">
+      <c r="C28" s="24"/>
+      <c r="D28" s="6" t="n">
         <v>1500</v>
       </c>
       <c r="F28" s="0"/>
@@ -921,12 +917,12 @@
       <c r="I28" s="0"/>
     </row>
     <row r="29" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A29" s="26" t="n">
+      <c r="A29" s="25" t="n">
         <v>2130</v>
       </c>
-      <c r="B29" s="12"/>
-      <c r="C29" s="25"/>
-      <c r="D29" s="26" t="n">
+      <c r="B29" s="11"/>
+      <c r="C29" s="24"/>
+      <c r="D29" s="25" t="n">
         <v>1530</v>
       </c>
       <c r="F29" s="0"/>
@@ -946,7 +942,7 @@
       <c r="A32" s="3" t="s">
         <v>1</v>
       </c>
-      <c r="B32" s="22" t="s">
+      <c r="B32" s="21" t="s">
         <v>2</v>
       </c>
       <c r="C32" s="5" t="s">
@@ -960,7 +956,7 @@
       <c r="A33" s="6" t="n">
         <v>900</v>
       </c>
-      <c r="B33" s="27" t="s">
+      <c r="B33" s="26" t="s">
         <v>17</v>
       </c>
       <c r="C33" s="8"/>
@@ -972,269 +968,269 @@
       <c r="A34" s="6" t="n">
         <v>930</v>
       </c>
-      <c r="B34" s="27"/>
+      <c r="B34" s="26"/>
       <c r="C34" s="8"/>
       <c r="D34" s="6" t="n">
         <v>330</v>
       </c>
     </row>
     <row r="35" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A35" s="9" t="n">
+      <c r="A35" s="6" t="n">
         <v>1000</v>
       </c>
-      <c r="B35" s="27" t="s">
+      <c r="B35" s="26" t="s">
         <v>18</v>
       </c>
       <c r="C35" s="8"/>
-      <c r="D35" s="9" t="n">
+      <c r="D35" s="6" t="n">
         <v>400</v>
       </c>
     </row>
     <row r="36" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A36" s="9" t="n">
+      <c r="A36" s="6" t="n">
         <v>1030</v>
       </c>
-      <c r="B36" s="27"/>
+      <c r="B36" s="26"/>
       <c r="C36" s="8"/>
-      <c r="D36" s="9" t="n">
+      <c r="D36" s="6" t="n">
         <v>430</v>
       </c>
     </row>
     <row r="37" customFormat="false" ht="13.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A37" s="9" t="n">
+      <c r="A37" s="6" t="n">
         <v>1100</v>
       </c>
-      <c r="B37" s="11" t="s">
+      <c r="B37" s="10" t="s">
         <v>19</v>
       </c>
       <c r="C37" s="8"/>
-      <c r="D37" s="9" t="n">
+      <c r="D37" s="6" t="n">
         <v>500</v>
       </c>
     </row>
     <row r="38" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A38" s="9" t="n">
+      <c r="A38" s="6" t="n">
         <v>1130</v>
       </c>
-      <c r="B38" s="11"/>
+      <c r="B38" s="10"/>
       <c r="C38" s="8"/>
-      <c r="D38" s="9" t="n">
+      <c r="D38" s="6" t="n">
         <v>530</v>
       </c>
     </row>
     <row r="39" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A39" s="9" t="n">
+      <c r="A39" s="6" t="n">
         <v>1200</v>
       </c>
-      <c r="B39" s="11"/>
+      <c r="B39" s="10"/>
       <c r="C39" s="8"/>
-      <c r="D39" s="9" t="n">
+      <c r="D39" s="6" t="n">
         <v>600</v>
       </c>
     </row>
     <row r="40" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A40" s="9" t="n">
+      <c r="A40" s="6" t="n">
         <v>1230</v>
       </c>
-      <c r="B40" s="11"/>
+      <c r="B40" s="10"/>
       <c r="C40" s="8"/>
-      <c r="D40" s="9" t="n">
+      <c r="D40" s="6" t="n">
         <v>630</v>
       </c>
     </row>
     <row r="41" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A41" s="9" t="n">
+      <c r="A41" s="6" t="n">
         <v>1300</v>
       </c>
-      <c r="B41" s="11"/>
+      <c r="B41" s="10"/>
       <c r="C41" s="8"/>
-      <c r="D41" s="9" t="n">
+      <c r="D41" s="6" t="n">
         <v>700</v>
       </c>
     </row>
     <row r="42" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A42" s="9" t="n">
+      <c r="A42" s="6" t="n">
         <v>1330</v>
       </c>
-      <c r="B42" s="11"/>
+      <c r="B42" s="10"/>
       <c r="C42" s="8"/>
-      <c r="D42" s="9" t="n">
+      <c r="D42" s="6" t="n">
         <v>730</v>
       </c>
     </row>
     <row r="43" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A43" s="9" t="n">
+      <c r="A43" s="6" t="n">
         <v>1400</v>
       </c>
-      <c r="B43" s="11"/>
+      <c r="B43" s="10"/>
       <c r="C43" s="8"/>
-      <c r="D43" s="9" t="n">
+      <c r="D43" s="6" t="n">
         <v>800</v>
       </c>
     </row>
     <row r="44" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A44" s="9" t="n">
+      <c r="A44" s="6" t="n">
         <v>1430</v>
       </c>
-      <c r="B44" s="11"/>
+      <c r="B44" s="10"/>
       <c r="C44" s="7" t="s">
         <v>20</v>
       </c>
-      <c r="D44" s="9" t="n">
+      <c r="D44" s="6" t="n">
         <v>830</v>
       </c>
     </row>
     <row r="45" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A45" s="14" t="n">
+      <c r="A45" s="13" t="n">
         <v>1500</v>
       </c>
-      <c r="B45" s="28" t="s">
+      <c r="B45" s="27" t="s">
         <v>21</v>
       </c>
-      <c r="C45" s="28"/>
-      <c r="D45" s="16" t="n">
+      <c r="C45" s="27"/>
+      <c r="D45" s="15" t="n">
         <v>900</v>
       </c>
     </row>
     <row r="46" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A46" s="17" t="n">
+      <c r="A46" s="16" t="n">
         <v>1530</v>
       </c>
-      <c r="B46" s="29" t="s">
+      <c r="B46" s="28" t="s">
         <v>22</v>
       </c>
-      <c r="C46" s="29"/>
-      <c r="D46" s="19" t="n">
+      <c r="C46" s="28"/>
+      <c r="D46" s="18" t="n">
         <v>930</v>
       </c>
     </row>
     <row r="47" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A47" s="9" t="n">
+      <c r="A47" s="6" t="n">
         <v>1600</v>
       </c>
-      <c r="B47" s="20" t="s">
+      <c r="B47" s="19" t="s">
         <v>23</v>
       </c>
-      <c r="C47" s="20"/>
-      <c r="D47" s="9" t="n">
+      <c r="C47" s="19"/>
+      <c r="D47" s="6" t="n">
         <v>1000</v>
       </c>
     </row>
     <row r="48" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A48" s="9" t="n">
+      <c r="A48" s="6" t="n">
         <v>1630</v>
       </c>
-      <c r="B48" s="20"/>
-      <c r="C48" s="20"/>
-      <c r="D48" s="9" t="n">
+      <c r="B48" s="19"/>
+      <c r="C48" s="19"/>
+      <c r="D48" s="6" t="n">
         <v>1030</v>
       </c>
     </row>
     <row r="49" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A49" s="9" t="n">
+      <c r="A49" s="6" t="n">
         <v>1700</v>
       </c>
-      <c r="B49" s="21"/>
-      <c r="C49" s="30" t="s">
+      <c r="B49" s="20"/>
+      <c r="C49" s="29" t="s">
         <v>24</v>
       </c>
-      <c r="D49" s="9" t="n">
+      <c r="D49" s="6" t="n">
         <v>1100</v>
       </c>
     </row>
     <row r="50" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A50" s="9" t="n">
+      <c r="A50" s="6" t="n">
         <v>1730</v>
       </c>
       <c r="B50" s="8"/>
-      <c r="C50" s="31" t="s">
+      <c r="C50" s="30" t="s">
         <v>25</v>
       </c>
-      <c r="D50" s="9" t="n">
+      <c r="D50" s="6" t="n">
         <v>1130</v>
       </c>
     </row>
     <row r="51" customFormat="false" ht="13.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A51" s="9" t="n">
+      <c r="A51" s="6" t="n">
         <v>1800</v>
       </c>
       <c r="B51" s="8"/>
-      <c r="C51" s="32" t="s">
+      <c r="C51" s="31" t="s">
         <v>14</v>
       </c>
-      <c r="D51" s="9" t="n">
+      <c r="D51" s="6" t="n">
         <v>1200</v>
       </c>
     </row>
     <row r="52" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A52" s="9" t="n">
+      <c r="A52" s="6" t="n">
         <v>1830</v>
       </c>
       <c r="B52" s="8"/>
-      <c r="C52" s="32"/>
-      <c r="D52" s="9" t="n">
+      <c r="C52" s="31"/>
+      <c r="D52" s="6" t="n">
         <v>1230</v>
       </c>
     </row>
     <row r="53" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A53" s="9" t="n">
+      <c r="A53" s="6" t="n">
         <v>1900</v>
       </c>
       <c r="B53" s="8"/>
-      <c r="C53" s="33" t="s">
+      <c r="C53" s="32" t="s">
         <v>26</v>
       </c>
-      <c r="D53" s="9" t="n">
+      <c r="D53" s="6" t="n">
         <v>1300</v>
       </c>
     </row>
     <row r="54" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A54" s="9" t="n">
+      <c r="A54" s="6" t="n">
         <v>1930</v>
       </c>
       <c r="B54" s="8"/>
-      <c r="C54" s="33"/>
-      <c r="D54" s="9" t="n">
+      <c r="C54" s="32"/>
+      <c r="D54" s="6" t="n">
         <v>1330</v>
       </c>
     </row>
     <row r="55" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A55" s="9" t="n">
+      <c r="A55" s="6" t="n">
         <v>2000</v>
       </c>
       <c r="B55" s="8"/>
-      <c r="C55" s="33"/>
-      <c r="D55" s="9" t="n">
+      <c r="C55" s="32"/>
+      <c r="D55" s="6" t="n">
         <v>1400</v>
       </c>
     </row>
     <row r="56" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A56" s="9" t="n">
+      <c r="A56" s="6" t="n">
         <v>2030</v>
       </c>
       <c r="B56" s="8"/>
-      <c r="C56" s="33"/>
-      <c r="D56" s="9" t="n">
+      <c r="C56" s="32"/>
+      <c r="D56" s="6" t="n">
         <v>1430</v>
       </c>
     </row>
     <row r="57" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A57" s="9" t="n">
+      <c r="A57" s="6" t="n">
         <v>2100</v>
       </c>
       <c r="B57" s="8"/>
-      <c r="C57" s="33"/>
-      <c r="D57" s="9" t="n">
+      <c r="C57" s="32"/>
+      <c r="D57" s="6" t="n">
         <v>1500</v>
       </c>
     </row>
     <row r="58" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A58" s="9" t="n">
+      <c r="A58" s="6" t="n">
         <v>2130</v>
       </c>
-      <c r="B58" s="12"/>
-      <c r="C58" s="33"/>
-      <c r="D58" s="26" t="n">
+      <c r="B58" s="11"/>
+      <c r="C58" s="32"/>
+      <c r="D58" s="25" t="n">
         <v>1530</v>
       </c>
     </row>
